--- a/HAS.xlsx
+++ b/HAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECCB0B6-533D-41ED-9F7D-CE840DEB2636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E08558-4D54-426B-B804-3212B2C14046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{1C9FC87F-5B58-40E7-8B2E-00BBB24FF49C}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{1C9FC87F-5B58-40E7-8B2E-00BBB24FF49C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,12 +244,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -260,21 +258,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -415,28 +425,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -774,34 +785,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D24EC3-3BB7-4A44-87DD-47D7D1B34BCC}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="3">
         <v>65.319999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="3">
@@ -811,11 +823,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="3">
@@ -823,11 +835,11 @@
         <v>9114.1865409199982</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="3">
@@ -837,8 +849,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="3">
@@ -849,11 +861,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="3">
@@ -861,63 +873,63 @@
         <v>11799.986540919999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -930,25 +942,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682F82AE-FAB4-48FF-92E1-AE447831AD1B}">
   <dimension ref="A1:AE400"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q30" sqref="L30:Q30"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -992,8 +1005,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="3"/>
@@ -1030,8 +1043,8 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="3"/>
@@ -1068,8 +1081,8 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="3"/>
@@ -1106,8 +1119,8 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="3"/>
@@ -1144,8 +1157,8 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="3"/>
@@ -1182,8 +1195,8 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="3"/>
@@ -1220,7 +1233,7 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1258,8 +1271,8 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="3"/>
@@ -1296,8 +1309,8 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="3"/>
@@ -1348,8 +1361,8 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="3"/>
@@ -1386,8 +1399,8 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="3"/>
@@ -1424,8 +1437,8 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="3"/>
@@ -1462,8 +1475,8 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="3"/>
@@ -1500,8 +1513,8 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="3"/>
@@ -1538,8 +1551,8 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="3"/>
@@ -1576,8 +1589,8 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="3"/>
@@ -1614,8 +1627,8 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="3"/>
@@ -1652,8 +1665,8 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="3"/>
@@ -1704,8 +1717,8 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="3"/>
@@ -1742,8 +1755,8 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="3"/>
@@ -1780,8 +1793,8 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="3"/>
@@ -1818,8 +1831,8 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="3"/>
@@ -1870,8 +1883,8 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="3"/>
@@ -1908,8 +1921,8 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="3"/>
@@ -1960,8 +1973,8 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="3"/>
@@ -1998,8 +2011,8 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="3"/>
@@ -2050,7 +2063,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2081,8 +2094,8 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="3"/>
@@ -2094,27 +2107,27 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="2" t="e">
+      <c r="L30" s="19" t="e">
         <f t="shared" ref="L30:P30" si="5">+L28/L31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="2" t="e">
+      <c r="M30" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="2" t="e">
+      <c r="N30" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="2" t="e">
+      <c r="O30" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="19">
         <f t="shared" si="5"/>
         <v>-10.729827089337176</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="19">
         <f>+Q28/Q31</f>
         <v>2.7661406025824951</v>
       </c>
@@ -2133,8 +2146,8 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="3"/>
@@ -2171,7 +2184,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2202,7 +2215,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2233,7 +2246,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2264,7 +2277,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2295,7 +2308,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2326,7 +2339,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2357,7 +2370,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2388,7 +2401,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2419,7 +2432,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2450,7 +2463,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2481,7 +2494,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2512,7 +2525,7 @@
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
     </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2543,7 +2556,7 @@
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
     </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2574,7 +2587,7 @@
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2605,7 +2618,7 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2636,7 +2649,7 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
     </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2667,7 +2680,7 @@
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
     </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2698,7 +2711,7 @@
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2729,7 +2742,7 @@
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2760,7 +2773,7 @@
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2791,7 +2804,7 @@
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2822,7 +2835,7 @@
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2853,7 +2866,7 @@
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2884,7 +2897,7 @@
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2915,7 +2928,7 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2946,7 +2959,7 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
     </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2977,7 +2990,7 @@
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3008,7 +3021,7 @@
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3039,7 +3052,7 @@
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3070,7 +3083,7 @@
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3101,7 +3114,7 @@
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3132,7 +3145,7 @@
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3163,7 +3176,7 @@
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
     </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3194,7 +3207,7 @@
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
     </row>
-    <row r="65" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3225,7 +3238,7 @@
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
     </row>
-    <row r="66" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3256,7 +3269,7 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
     </row>
-    <row r="67" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3287,7 +3300,7 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
     </row>
-    <row r="68" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3318,7 +3331,7 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
     </row>
-    <row r="69" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3349,7 +3362,7 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
     </row>
-    <row r="70" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3380,7 +3393,7 @@
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
     </row>
-    <row r="71" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3411,7 +3424,7 @@
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
     </row>
-    <row r="72" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3442,7 +3455,7 @@
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
     </row>
-    <row r="73" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3473,7 +3486,7 @@
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
     </row>
-    <row r="74" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3504,7 +3517,7 @@
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
     </row>
-    <row r="75" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3535,7 +3548,7 @@
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
     </row>
-    <row r="76" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3566,7 +3579,7 @@
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
     </row>
-    <row r="77" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3597,7 +3610,7 @@
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
     </row>
-    <row r="78" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3628,7 +3641,7 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
     </row>
-    <row r="79" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3659,7 +3672,7 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
     </row>
-    <row r="80" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3690,7 +3703,7 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3721,7 +3734,7 @@
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3752,7 +3765,7 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
     </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3783,7 +3796,7 @@
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3814,7 +3827,7 @@
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
     </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3845,7 +3858,7 @@
       <c r="AD85" s="3"/>
       <c r="AE85" s="3"/>
     </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3876,7 +3889,7 @@
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
     </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3907,7 +3920,7 @@
       <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
     </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3938,7 +3951,7 @@
       <c r="AD88" s="3"/>
       <c r="AE88" s="3"/>
     </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3969,7 +3982,7 @@
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4000,7 +4013,7 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
     </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4031,7 +4044,7 @@
       <c r="AD91" s="3"/>
       <c r="AE91" s="3"/>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4062,7 +4075,7 @@
       <c r="AD92" s="3"/>
       <c r="AE92" s="3"/>
     </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4093,7 +4106,7 @@
       <c r="AD93" s="3"/>
       <c r="AE93" s="3"/>
     </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4124,7 +4137,7 @@
       <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4155,7 +4168,7 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
     </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4186,7 +4199,7 @@
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4217,7 +4230,7 @@
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
     </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4248,7 +4261,7 @@
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
     </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4279,7 +4292,7 @@
       <c r="AD99" s="3"/>
       <c r="AE99" s="3"/>
     </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4310,7 +4323,7 @@
       <c r="AD100" s="3"/>
       <c r="AE100" s="3"/>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4341,7 +4354,7 @@
       <c r="AD101" s="3"/>
       <c r="AE101" s="3"/>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4372,7 +4385,7 @@
       <c r="AD102" s="3"/>
       <c r="AE102" s="3"/>
     </row>
-    <row r="103" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4403,7 +4416,7 @@
       <c r="AD103" s="3"/>
       <c r="AE103" s="3"/>
     </row>
-    <row r="104" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4434,7 +4447,7 @@
       <c r="AD104" s="3"/>
       <c r="AE104" s="3"/>
     </row>
-    <row r="105" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4465,7 +4478,7 @@
       <c r="AD105" s="3"/>
       <c r="AE105" s="3"/>
     </row>
-    <row r="106" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4496,7 +4509,7 @@
       <c r="AD106" s="3"/>
       <c r="AE106" s="3"/>
     </row>
-    <row r="107" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4527,7 +4540,7 @@
       <c r="AD107" s="3"/>
       <c r="AE107" s="3"/>
     </row>
-    <row r="108" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4558,7 +4571,7 @@
       <c r="AD108" s="3"/>
       <c r="AE108" s="3"/>
     </row>
-    <row r="109" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4589,7 +4602,7 @@
       <c r="AD109" s="3"/>
       <c r="AE109" s="3"/>
     </row>
-    <row r="110" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4620,7 +4633,7 @@
       <c r="AD110" s="3"/>
       <c r="AE110" s="3"/>
     </row>
-    <row r="111" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4651,7 +4664,7 @@
       <c r="AD111" s="3"/>
       <c r="AE111" s="3"/>
     </row>
-    <row r="112" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4682,7 +4695,7 @@
       <c r="AD112" s="3"/>
       <c r="AE112" s="3"/>
     </row>
-    <row r="113" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4713,7 +4726,7 @@
       <c r="AD113" s="3"/>
       <c r="AE113" s="3"/>
     </row>
-    <row r="114" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4744,7 +4757,7 @@
       <c r="AD114" s="3"/>
       <c r="AE114" s="3"/>
     </row>
-    <row r="115" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -4775,7 +4788,7 @@
       <c r="AD115" s="3"/>
       <c r="AE115" s="3"/>
     </row>
-    <row r="116" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -4806,7 +4819,7 @@
       <c r="AD116" s="3"/>
       <c r="AE116" s="3"/>
     </row>
-    <row r="117" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -4837,7 +4850,7 @@
       <c r="AD117" s="3"/>
       <c r="AE117" s="3"/>
     </row>
-    <row r="118" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -4868,7 +4881,7 @@
       <c r="AD118" s="3"/>
       <c r="AE118" s="3"/>
     </row>
-    <row r="119" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -4899,7 +4912,7 @@
       <c r="AD119" s="3"/>
       <c r="AE119" s="3"/>
     </row>
-    <row r="120" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -4930,7 +4943,7 @@
       <c r="AD120" s="3"/>
       <c r="AE120" s="3"/>
     </row>
-    <row r="121" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4961,7 +4974,7 @@
       <c r="AD121" s="3"/>
       <c r="AE121" s="3"/>
     </row>
-    <row r="122" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -4992,7 +5005,7 @@
       <c r="AD122" s="3"/>
       <c r="AE122" s="3"/>
     </row>
-    <row r="123" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5023,7 +5036,7 @@
       <c r="AD123" s="3"/>
       <c r="AE123" s="3"/>
     </row>
-    <row r="124" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5054,7 +5067,7 @@
       <c r="AD124" s="3"/>
       <c r="AE124" s="3"/>
     </row>
-    <row r="125" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5085,7 +5098,7 @@
       <c r="AD125" s="3"/>
       <c r="AE125" s="3"/>
     </row>
-    <row r="126" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -5116,7 +5129,7 @@
       <c r="AD126" s="3"/>
       <c r="AE126" s="3"/>
     </row>
-    <row r="127" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5147,7 +5160,7 @@
       <c r="AD127" s="3"/>
       <c r="AE127" s="3"/>
     </row>
-    <row r="128" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -5178,7 +5191,7 @@
       <c r="AD128" s="3"/>
       <c r="AE128" s="3"/>
     </row>
-    <row r="129" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -5209,7 +5222,7 @@
       <c r="AD129" s="3"/>
       <c r="AE129" s="3"/>
     </row>
-    <row r="130" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5240,7 +5253,7 @@
       <c r="AD130" s="3"/>
       <c r="AE130" s="3"/>
     </row>
-    <row r="131" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5271,7 +5284,7 @@
       <c r="AD131" s="3"/>
       <c r="AE131" s="3"/>
     </row>
-    <row r="132" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5302,7 +5315,7 @@
       <c r="AD132" s="3"/>
       <c r="AE132" s="3"/>
     </row>
-    <row r="133" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -5333,7 +5346,7 @@
       <c r="AD133" s="3"/>
       <c r="AE133" s="3"/>
     </row>
-    <row r="134" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -5364,7 +5377,7 @@
       <c r="AD134" s="3"/>
       <c r="AE134" s="3"/>
     </row>
-    <row r="135" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -5395,7 +5408,7 @@
       <c r="AD135" s="3"/>
       <c r="AE135" s="3"/>
     </row>
-    <row r="136" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -5426,7 +5439,7 @@
       <c r="AD136" s="3"/>
       <c r="AE136" s="3"/>
     </row>
-    <row r="137" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -5457,7 +5470,7 @@
       <c r="AD137" s="3"/>
       <c r="AE137" s="3"/>
     </row>
-    <row r="138" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -5488,7 +5501,7 @@
       <c r="AD138" s="3"/>
       <c r="AE138" s="3"/>
     </row>
-    <row r="139" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -5519,7 +5532,7 @@
       <c r="AD139" s="3"/>
       <c r="AE139" s="3"/>
     </row>
-    <row r="140" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -5550,7 +5563,7 @@
       <c r="AD140" s="3"/>
       <c r="AE140" s="3"/>
     </row>
-    <row r="141" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -5581,7 +5594,7 @@
       <c r="AD141" s="3"/>
       <c r="AE141" s="3"/>
     </row>
-    <row r="142" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -5612,7 +5625,7 @@
       <c r="AD142" s="3"/>
       <c r="AE142" s="3"/>
     </row>
-    <row r="143" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -5643,7 +5656,7 @@
       <c r="AD143" s="3"/>
       <c r="AE143" s="3"/>
     </row>
-    <row r="144" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -5674,7 +5687,7 @@
       <c r="AD144" s="3"/>
       <c r="AE144" s="3"/>
     </row>
-    <row r="145" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -5705,7 +5718,7 @@
       <c r="AD145" s="3"/>
       <c r="AE145" s="3"/>
     </row>
-    <row r="146" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -5736,7 +5749,7 @@
       <c r="AD146" s="3"/>
       <c r="AE146" s="3"/>
     </row>
-    <row r="147" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -5767,7 +5780,7 @@
       <c r="AD147" s="3"/>
       <c r="AE147" s="3"/>
     </row>
-    <row r="148" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -5798,7 +5811,7 @@
       <c r="AD148" s="3"/>
       <c r="AE148" s="3"/>
     </row>
-    <row r="149" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -5829,7 +5842,7 @@
       <c r="AD149" s="3"/>
       <c r="AE149" s="3"/>
     </row>
-    <row r="150" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -5860,7 +5873,7 @@
       <c r="AD150" s="3"/>
       <c r="AE150" s="3"/>
     </row>
-    <row r="151" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -5891,7 +5904,7 @@
       <c r="AD151" s="3"/>
       <c r="AE151" s="3"/>
     </row>
-    <row r="152" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -5922,7 +5935,7 @@
       <c r="AD152" s="3"/>
       <c r="AE152" s="3"/>
     </row>
-    <row r="153" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5953,7 +5966,7 @@
       <c r="AD153" s="3"/>
       <c r="AE153" s="3"/>
     </row>
-    <row r="154" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5984,7 +5997,7 @@
       <c r="AD154" s="3"/>
       <c r="AE154" s="3"/>
     </row>
-    <row r="155" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -6015,7 +6028,7 @@
       <c r="AD155" s="3"/>
       <c r="AE155" s="3"/>
     </row>
-    <row r="156" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -6046,7 +6059,7 @@
       <c r="AD156" s="3"/>
       <c r="AE156" s="3"/>
     </row>
-    <row r="157" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -6077,7 +6090,7 @@
       <c r="AD157" s="3"/>
       <c r="AE157" s="3"/>
     </row>
-    <row r="158" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -6108,7 +6121,7 @@
       <c r="AD158" s="3"/>
       <c r="AE158" s="3"/>
     </row>
-    <row r="159" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6139,7 +6152,7 @@
       <c r="AD159" s="3"/>
       <c r="AE159" s="3"/>
     </row>
-    <row r="160" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6170,7 +6183,7 @@
       <c r="AD160" s="3"/>
       <c r="AE160" s="3"/>
     </row>
-    <row r="161" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6201,7 +6214,7 @@
       <c r="AD161" s="3"/>
       <c r="AE161" s="3"/>
     </row>
-    <row r="162" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -6232,7 +6245,7 @@
       <c r="AD162" s="3"/>
       <c r="AE162" s="3"/>
     </row>
-    <row r="163" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -6263,7 +6276,7 @@
       <c r="AD163" s="3"/>
       <c r="AE163" s="3"/>
     </row>
-    <row r="164" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -6294,7 +6307,7 @@
       <c r="AD164" s="3"/>
       <c r="AE164" s="3"/>
     </row>
-    <row r="165" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -6325,7 +6338,7 @@
       <c r="AD165" s="3"/>
       <c r="AE165" s="3"/>
     </row>
-    <row r="166" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -6356,7 +6369,7 @@
       <c r="AD166" s="3"/>
       <c r="AE166" s="3"/>
     </row>
-    <row r="167" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -6387,7 +6400,7 @@
       <c r="AD167" s="3"/>
       <c r="AE167" s="3"/>
     </row>
-    <row r="168" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -6418,7 +6431,7 @@
       <c r="AD168" s="3"/>
       <c r="AE168" s="3"/>
     </row>
-    <row r="169" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -6449,7 +6462,7 @@
       <c r="AD169" s="3"/>
       <c r="AE169" s="3"/>
     </row>
-    <row r="170" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -6480,7 +6493,7 @@
       <c r="AD170" s="3"/>
       <c r="AE170" s="3"/>
     </row>
-    <row r="171" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -6511,7 +6524,7 @@
       <c r="AD171" s="3"/>
       <c r="AE171" s="3"/>
     </row>
-    <row r="172" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -6542,7 +6555,7 @@
       <c r="AD172" s="3"/>
       <c r="AE172" s="3"/>
     </row>
-    <row r="173" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -6573,7 +6586,7 @@
       <c r="AD173" s="3"/>
       <c r="AE173" s="3"/>
     </row>
-    <row r="174" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -6604,7 +6617,7 @@
       <c r="AD174" s="3"/>
       <c r="AE174" s="3"/>
     </row>
-    <row r="175" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -6635,7 +6648,7 @@
       <c r="AD175" s="3"/>
       <c r="AE175" s="3"/>
     </row>
-    <row r="176" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -6666,7 +6679,7 @@
       <c r="AD176" s="3"/>
       <c r="AE176" s="3"/>
     </row>
-    <row r="177" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -6697,7 +6710,7 @@
       <c r="AD177" s="3"/>
       <c r="AE177" s="3"/>
     </row>
-    <row r="178" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -6728,7 +6741,7 @@
       <c r="AD178" s="3"/>
       <c r="AE178" s="3"/>
     </row>
-    <row r="179" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -6759,7 +6772,7 @@
       <c r="AD179" s="3"/>
       <c r="AE179" s="3"/>
     </row>
-    <row r="180" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -6790,7 +6803,7 @@
       <c r="AD180" s="3"/>
       <c r="AE180" s="3"/>
     </row>
-    <row r="181" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -6821,7 +6834,7 @@
       <c r="AD181" s="3"/>
       <c r="AE181" s="3"/>
     </row>
-    <row r="182" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -6852,7 +6865,7 @@
       <c r="AD182" s="3"/>
       <c r="AE182" s="3"/>
     </row>
-    <row r="183" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -6883,7 +6896,7 @@
       <c r="AD183" s="3"/>
       <c r="AE183" s="3"/>
     </row>
-    <row r="184" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -6914,7 +6927,7 @@
       <c r="AD184" s="3"/>
       <c r="AE184" s="3"/>
     </row>
-    <row r="185" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -6945,7 +6958,7 @@
       <c r="AD185" s="3"/>
       <c r="AE185" s="3"/>
     </row>
-    <row r="186" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -6976,7 +6989,7 @@
       <c r="AD186" s="3"/>
       <c r="AE186" s="3"/>
     </row>
-    <row r="187" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -7007,7 +7020,7 @@
       <c r="AD187" s="3"/>
       <c r="AE187" s="3"/>
     </row>
-    <row r="188" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -7038,7 +7051,7 @@
       <c r="AD188" s="3"/>
       <c r="AE188" s="3"/>
     </row>
-    <row r="189" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7069,7 +7082,7 @@
       <c r="AD189" s="3"/>
       <c r="AE189" s="3"/>
     </row>
-    <row r="190" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -7100,7 +7113,7 @@
       <c r="AD190" s="3"/>
       <c r="AE190" s="3"/>
     </row>
-    <row r="191" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7131,7 +7144,7 @@
       <c r="AD191" s="3"/>
       <c r="AE191" s="3"/>
     </row>
-    <row r="192" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -7162,7 +7175,7 @@
       <c r="AD192" s="3"/>
       <c r="AE192" s="3"/>
     </row>
-    <row r="193" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -7193,7 +7206,7 @@
       <c r="AD193" s="3"/>
       <c r="AE193" s="3"/>
     </row>
-    <row r="194" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -7224,7 +7237,7 @@
       <c r="AD194" s="3"/>
       <c r="AE194" s="3"/>
     </row>
-    <row r="195" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -7255,7 +7268,7 @@
       <c r="AD195" s="3"/>
       <c r="AE195" s="3"/>
     </row>
-    <row r="196" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -7286,7 +7299,7 @@
       <c r="AD196" s="3"/>
       <c r="AE196" s="3"/>
     </row>
-    <row r="197" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -7317,7 +7330,7 @@
       <c r="AD197" s="3"/>
       <c r="AE197" s="3"/>
     </row>
-    <row r="198" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -7348,7 +7361,7 @@
       <c r="AD198" s="3"/>
       <c r="AE198" s="3"/>
     </row>
-    <row r="199" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -7379,7 +7392,7 @@
       <c r="AD199" s="3"/>
       <c r="AE199" s="3"/>
     </row>
-    <row r="200" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -7410,7 +7423,7 @@
       <c r="AD200" s="3"/>
       <c r="AE200" s="3"/>
     </row>
-    <row r="201" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -7441,7 +7454,7 @@
       <c r="AD201" s="3"/>
       <c r="AE201" s="3"/>
     </row>
-    <row r="202" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -7472,7 +7485,7 @@
       <c r="AD202" s="3"/>
       <c r="AE202" s="3"/>
     </row>
-    <row r="203" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -7503,7 +7516,7 @@
       <c r="AD203" s="3"/>
       <c r="AE203" s="3"/>
     </row>
-    <row r="204" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -7534,7 +7547,7 @@
       <c r="AD204" s="3"/>
       <c r="AE204" s="3"/>
     </row>
-    <row r="205" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -7565,7 +7578,7 @@
       <c r="AD205" s="3"/>
       <c r="AE205" s="3"/>
     </row>
-    <row r="206" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -7596,7 +7609,7 @@
       <c r="AD206" s="3"/>
       <c r="AE206" s="3"/>
     </row>
-    <row r="207" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -7627,7 +7640,7 @@
       <c r="AD207" s="3"/>
       <c r="AE207" s="3"/>
     </row>
-    <row r="208" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -7658,7 +7671,7 @@
       <c r="AD208" s="3"/>
       <c r="AE208" s="3"/>
     </row>
-    <row r="209" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -7689,7 +7702,7 @@
       <c r="AD209" s="3"/>
       <c r="AE209" s="3"/>
     </row>
-    <row r="210" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -7720,7 +7733,7 @@
       <c r="AD210" s="3"/>
       <c r="AE210" s="3"/>
     </row>
-    <row r="211" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -7751,7 +7764,7 @@
       <c r="AD211" s="3"/>
       <c r="AE211" s="3"/>
     </row>
-    <row r="212" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -7782,7 +7795,7 @@
       <c r="AD212" s="3"/>
       <c r="AE212" s="3"/>
     </row>
-    <row r="213" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -7813,7 +7826,7 @@
       <c r="AD213" s="3"/>
       <c r="AE213" s="3"/>
     </row>
-    <row r="214" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -7844,7 +7857,7 @@
       <c r="AD214" s="3"/>
       <c r="AE214" s="3"/>
     </row>
-    <row r="215" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -7875,7 +7888,7 @@
       <c r="AD215" s="3"/>
       <c r="AE215" s="3"/>
     </row>
-    <row r="216" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -7906,7 +7919,7 @@
       <c r="AD216" s="3"/>
       <c r="AE216" s="3"/>
     </row>
-    <row r="217" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -7937,7 +7950,7 @@
       <c r="AD217" s="3"/>
       <c r="AE217" s="3"/>
     </row>
-    <row r="218" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -7968,7 +7981,7 @@
       <c r="AD218" s="3"/>
       <c r="AE218" s="3"/>
     </row>
-    <row r="219" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -7999,7 +8012,7 @@
       <c r="AD219" s="3"/>
       <c r="AE219" s="3"/>
     </row>
-    <row r="220" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -8030,7 +8043,7 @@
       <c r="AD220" s="3"/>
       <c r="AE220" s="3"/>
     </row>
-    <row r="221" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -8061,7 +8074,7 @@
       <c r="AD221" s="3"/>
       <c r="AE221" s="3"/>
     </row>
-    <row r="222" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -8092,7 +8105,7 @@
       <c r="AD222" s="3"/>
       <c r="AE222" s="3"/>
     </row>
-    <row r="223" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -8123,7 +8136,7 @@
       <c r="AD223" s="3"/>
       <c r="AE223" s="3"/>
     </row>
-    <row r="224" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -8154,7 +8167,7 @@
       <c r="AD224" s="3"/>
       <c r="AE224" s="3"/>
     </row>
-    <row r="225" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -8185,7 +8198,7 @@
       <c r="AD225" s="3"/>
       <c r="AE225" s="3"/>
     </row>
-    <row r="226" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -8216,7 +8229,7 @@
       <c r="AD226" s="3"/>
       <c r="AE226" s="3"/>
     </row>
-    <row r="227" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -8247,7 +8260,7 @@
       <c r="AD227" s="3"/>
       <c r="AE227" s="3"/>
     </row>
-    <row r="228" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -8278,7 +8291,7 @@
       <c r="AD228" s="3"/>
       <c r="AE228" s="3"/>
     </row>
-    <row r="229" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -8309,7 +8322,7 @@
       <c r="AD229" s="3"/>
       <c r="AE229" s="3"/>
     </row>
-    <row r="230" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -8340,7 +8353,7 @@
       <c r="AD230" s="3"/>
       <c r="AE230" s="3"/>
     </row>
-    <row r="231" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -8371,7 +8384,7 @@
       <c r="AD231" s="3"/>
       <c r="AE231" s="3"/>
     </row>
-    <row r="232" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -8402,7 +8415,7 @@
       <c r="AD232" s="3"/>
       <c r="AE232" s="3"/>
     </row>
-    <row r="233" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -8433,7 +8446,7 @@
       <c r="AD233" s="3"/>
       <c r="AE233" s="3"/>
     </row>
-    <row r="234" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -8464,7 +8477,7 @@
       <c r="AD234" s="3"/>
       <c r="AE234" s="3"/>
     </row>
-    <row r="235" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -8495,7 +8508,7 @@
       <c r="AD235" s="3"/>
       <c r="AE235" s="3"/>
     </row>
-    <row r="236" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -8526,7 +8539,7 @@
       <c r="AD236" s="3"/>
       <c r="AE236" s="3"/>
     </row>
-    <row r="237" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -8557,7 +8570,7 @@
       <c r="AD237" s="3"/>
       <c r="AE237" s="3"/>
     </row>
-    <row r="238" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -8588,7 +8601,7 @@
       <c r="AD238" s="3"/>
       <c r="AE238" s="3"/>
     </row>
-    <row r="239" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -8619,7 +8632,7 @@
       <c r="AD239" s="3"/>
       <c r="AE239" s="3"/>
     </row>
-    <row r="240" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -8650,7 +8663,7 @@
       <c r="AD240" s="3"/>
       <c r="AE240" s="3"/>
     </row>
-    <row r="241" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -8681,7 +8694,7 @@
       <c r="AD241" s="3"/>
       <c r="AE241" s="3"/>
     </row>
-    <row r="242" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -8712,7 +8725,7 @@
       <c r="AD242" s="3"/>
       <c r="AE242" s="3"/>
     </row>
-    <row r="243" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -8743,7 +8756,7 @@
       <c r="AD243" s="3"/>
       <c r="AE243" s="3"/>
     </row>
-    <row r="244" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -8774,7 +8787,7 @@
       <c r="AD244" s="3"/>
       <c r="AE244" s="3"/>
     </row>
-    <row r="245" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -8805,7 +8818,7 @@
       <c r="AD245" s="3"/>
       <c r="AE245" s="3"/>
     </row>
-    <row r="246" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -8836,7 +8849,7 @@
       <c r="AD246" s="3"/>
       <c r="AE246" s="3"/>
     </row>
-    <row r="247" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -8867,7 +8880,7 @@
       <c r="AD247" s="3"/>
       <c r="AE247" s="3"/>
     </row>
-    <row r="248" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -8898,7 +8911,7 @@
       <c r="AD248" s="3"/>
       <c r="AE248" s="3"/>
     </row>
-    <row r="249" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -8929,7 +8942,7 @@
       <c r="AD249" s="3"/>
       <c r="AE249" s="3"/>
     </row>
-    <row r="250" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -8960,7 +8973,7 @@
       <c r="AD250" s="3"/>
       <c r="AE250" s="3"/>
     </row>
-    <row r="251" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -8991,7 +9004,7 @@
       <c r="AD251" s="3"/>
       <c r="AE251" s="3"/>
     </row>
-    <row r="252" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -9022,7 +9035,7 @@
       <c r="AD252" s="3"/>
       <c r="AE252" s="3"/>
     </row>
-    <row r="253" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -9053,7 +9066,7 @@
       <c r="AD253" s="3"/>
       <c r="AE253" s="3"/>
     </row>
-    <row r="254" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -9084,7 +9097,7 @@
       <c r="AD254" s="3"/>
       <c r="AE254" s="3"/>
     </row>
-    <row r="255" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -9115,7 +9128,7 @@
       <c r="AD255" s="3"/>
       <c r="AE255" s="3"/>
     </row>
-    <row r="256" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -9146,7 +9159,7 @@
       <c r="AD256" s="3"/>
       <c r="AE256" s="3"/>
     </row>
-    <row r="257" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -9177,7 +9190,7 @@
       <c r="AD257" s="3"/>
       <c r="AE257" s="3"/>
     </row>
-    <row r="258" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -9208,7 +9221,7 @@
       <c r="AD258" s="3"/>
       <c r="AE258" s="3"/>
     </row>
-    <row r="259" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -9239,7 +9252,7 @@
       <c r="AD259" s="3"/>
       <c r="AE259" s="3"/>
     </row>
-    <row r="260" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -9270,7 +9283,7 @@
       <c r="AD260" s="3"/>
       <c r="AE260" s="3"/>
     </row>
-    <row r="261" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -9301,7 +9314,7 @@
       <c r="AD261" s="3"/>
       <c r="AE261" s="3"/>
     </row>
-    <row r="262" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -9332,7 +9345,7 @@
       <c r="AD262" s="3"/>
       <c r="AE262" s="3"/>
     </row>
-    <row r="263" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -9363,7 +9376,7 @@
       <c r="AD263" s="3"/>
       <c r="AE263" s="3"/>
     </row>
-    <row r="264" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -9394,7 +9407,7 @@
       <c r="AD264" s="3"/>
       <c r="AE264" s="3"/>
     </row>
-    <row r="265" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -9425,7 +9438,7 @@
       <c r="AD265" s="3"/>
       <c r="AE265" s="3"/>
     </row>
-    <row r="266" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -9456,7 +9469,7 @@
       <c r="AD266" s="3"/>
       <c r="AE266" s="3"/>
     </row>
-    <row r="267" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -9487,7 +9500,7 @@
       <c r="AD267" s="3"/>
       <c r="AE267" s="3"/>
     </row>
-    <row r="268" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -9518,7 +9531,7 @@
       <c r="AD268" s="3"/>
       <c r="AE268" s="3"/>
     </row>
-    <row r="269" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -9549,7 +9562,7 @@
       <c r="AD269" s="3"/>
       <c r="AE269" s="3"/>
     </row>
-    <row r="270" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -9580,7 +9593,7 @@
       <c r="AD270" s="3"/>
       <c r="AE270" s="3"/>
     </row>
-    <row r="271" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -9611,7 +9624,7 @@
       <c r="AD271" s="3"/>
       <c r="AE271" s="3"/>
     </row>
-    <row r="272" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -9642,7 +9655,7 @@
       <c r="AD272" s="3"/>
       <c r="AE272" s="3"/>
     </row>
-    <row r="273" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -9673,7 +9686,7 @@
       <c r="AD273" s="3"/>
       <c r="AE273" s="3"/>
     </row>
-    <row r="274" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -9704,7 +9717,7 @@
       <c r="AD274" s="3"/>
       <c r="AE274" s="3"/>
     </row>
-    <row r="275" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -9735,7 +9748,7 @@
       <c r="AD275" s="3"/>
       <c r="AE275" s="3"/>
     </row>
-    <row r="276" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -9766,7 +9779,7 @@
       <c r="AD276" s="3"/>
       <c r="AE276" s="3"/>
     </row>
-    <row r="277" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -9797,7 +9810,7 @@
       <c r="AD277" s="3"/>
       <c r="AE277" s="3"/>
     </row>
-    <row r="278" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -9828,7 +9841,7 @@
       <c r="AD278" s="3"/>
       <c r="AE278" s="3"/>
     </row>
-    <row r="279" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -9859,7 +9872,7 @@
       <c r="AD279" s="3"/>
       <c r="AE279" s="3"/>
     </row>
-    <row r="280" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -9890,7 +9903,7 @@
       <c r="AD280" s="3"/>
       <c r="AE280" s="3"/>
     </row>
-    <row r="281" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -9921,7 +9934,7 @@
       <c r="AD281" s="3"/>
       <c r="AE281" s="3"/>
     </row>
-    <row r="282" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -9952,7 +9965,7 @@
       <c r="AD282" s="3"/>
       <c r="AE282" s="3"/>
     </row>
-    <row r="283" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -9983,7 +9996,7 @@
       <c r="AD283" s="3"/>
       <c r="AE283" s="3"/>
     </row>
-    <row r="284" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -10014,7 +10027,7 @@
       <c r="AD284" s="3"/>
       <c r="AE284" s="3"/>
     </row>
-    <row r="285" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -10045,7 +10058,7 @@
       <c r="AD285" s="3"/>
       <c r="AE285" s="3"/>
     </row>
-    <row r="286" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -10076,7 +10089,7 @@
       <c r="AD286" s="3"/>
       <c r="AE286" s="3"/>
     </row>
-    <row r="287" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -10107,7 +10120,7 @@
       <c r="AD287" s="3"/>
       <c r="AE287" s="3"/>
     </row>
-    <row r="288" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -10138,7 +10151,7 @@
       <c r="AD288" s="3"/>
       <c r="AE288" s="3"/>
     </row>
-    <row r="289" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -10169,7 +10182,7 @@
       <c r="AD289" s="3"/>
       <c r="AE289" s="3"/>
     </row>
-    <row r="290" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -10200,7 +10213,7 @@
       <c r="AD290" s="3"/>
       <c r="AE290" s="3"/>
     </row>
-    <row r="291" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -10231,7 +10244,7 @@
       <c r="AD291" s="3"/>
       <c r="AE291" s="3"/>
     </row>
-    <row r="292" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -10262,7 +10275,7 @@
       <c r="AD292" s="3"/>
       <c r="AE292" s="3"/>
     </row>
-    <row r="293" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -10293,7 +10306,7 @@
       <c r="AD293" s="3"/>
       <c r="AE293" s="3"/>
     </row>
-    <row r="294" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -10324,7 +10337,7 @@
       <c r="AD294" s="3"/>
       <c r="AE294" s="3"/>
     </row>
-    <row r="295" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -10355,7 +10368,7 @@
       <c r="AD295" s="3"/>
       <c r="AE295" s="3"/>
     </row>
-    <row r="296" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -10386,7 +10399,7 @@
       <c r="AD296" s="3"/>
       <c r="AE296" s="3"/>
     </row>
-    <row r="297" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -10417,7 +10430,7 @@
       <c r="AD297" s="3"/>
       <c r="AE297" s="3"/>
     </row>
-    <row r="298" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -10448,7 +10461,7 @@
       <c r="AD298" s="3"/>
       <c r="AE298" s="3"/>
     </row>
-    <row r="299" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -10479,7 +10492,7 @@
       <c r="AD299" s="3"/>
       <c r="AE299" s="3"/>
     </row>
-    <row r="300" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -10510,7 +10523,7 @@
       <c r="AD300" s="3"/>
       <c r="AE300" s="3"/>
     </row>
-    <row r="301" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -10541,7 +10554,7 @@
       <c r="AD301" s="3"/>
       <c r="AE301" s="3"/>
     </row>
-    <row r="302" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -10572,7 +10585,7 @@
       <c r="AD302" s="3"/>
       <c r="AE302" s="3"/>
     </row>
-    <row r="303" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -10603,7 +10616,7 @@
       <c r="AD303" s="3"/>
       <c r="AE303" s="3"/>
     </row>
-    <row r="304" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -10634,7 +10647,7 @@
       <c r="AD304" s="3"/>
       <c r="AE304" s="3"/>
     </row>
-    <row r="305" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -10665,7 +10678,7 @@
       <c r="AD305" s="3"/>
       <c r="AE305" s="3"/>
     </row>
-    <row r="306" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -10696,7 +10709,7 @@
       <c r="AD306" s="3"/>
       <c r="AE306" s="3"/>
     </row>
-    <row r="307" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -10727,7 +10740,7 @@
       <c r="AD307" s="3"/>
       <c r="AE307" s="3"/>
     </row>
-    <row r="308" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -10758,7 +10771,7 @@
       <c r="AD308" s="3"/>
       <c r="AE308" s="3"/>
     </row>
-    <row r="309" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -10789,7 +10802,7 @@
       <c r="AD309" s="3"/>
       <c r="AE309" s="3"/>
     </row>
-    <row r="310" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -10820,7 +10833,7 @@
       <c r="AD310" s="3"/>
       <c r="AE310" s="3"/>
     </row>
-    <row r="311" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -10851,7 +10864,7 @@
       <c r="AD311" s="3"/>
       <c r="AE311" s="3"/>
     </row>
-    <row r="312" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -10882,7 +10895,7 @@
       <c r="AD312" s="3"/>
       <c r="AE312" s="3"/>
     </row>
-    <row r="313" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -10913,7 +10926,7 @@
       <c r="AD313" s="3"/>
       <c r="AE313" s="3"/>
     </row>
-    <row r="314" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -10944,7 +10957,7 @@
       <c r="AD314" s="3"/>
       <c r="AE314" s="3"/>
     </row>
-    <row r="315" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -10975,7 +10988,7 @@
       <c r="AD315" s="3"/>
       <c r="AE315" s="3"/>
     </row>
-    <row r="316" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -11006,7 +11019,7 @@
       <c r="AD316" s="3"/>
       <c r="AE316" s="3"/>
     </row>
-    <row r="317" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -11037,7 +11050,7 @@
       <c r="AD317" s="3"/>
       <c r="AE317" s="3"/>
     </row>
-    <row r="318" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -11068,7 +11081,7 @@
       <c r="AD318" s="3"/>
       <c r="AE318" s="3"/>
     </row>
-    <row r="319" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -11099,7 +11112,7 @@
       <c r="AD319" s="3"/>
       <c r="AE319" s="3"/>
     </row>
-    <row r="320" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -11130,7 +11143,7 @@
       <c r="AD320" s="3"/>
       <c r="AE320" s="3"/>
     </row>
-    <row r="321" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -11161,7 +11174,7 @@
       <c r="AD321" s="3"/>
       <c r="AE321" s="3"/>
     </row>
-    <row r="322" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -11192,7 +11205,7 @@
       <c r="AD322" s="3"/>
       <c r="AE322" s="3"/>
     </row>
-    <row r="323" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -11223,7 +11236,7 @@
       <c r="AD323" s="3"/>
       <c r="AE323" s="3"/>
     </row>
-    <row r="324" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -11254,7 +11267,7 @@
       <c r="AD324" s="3"/>
       <c r="AE324" s="3"/>
     </row>
-    <row r="325" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -11285,7 +11298,7 @@
       <c r="AD325" s="3"/>
       <c r="AE325" s="3"/>
     </row>
-    <row r="326" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -11316,7 +11329,7 @@
       <c r="AD326" s="3"/>
       <c r="AE326" s="3"/>
     </row>
-    <row r="327" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -11347,7 +11360,7 @@
       <c r="AD327" s="3"/>
       <c r="AE327" s="3"/>
     </row>
-    <row r="328" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -11378,7 +11391,7 @@
       <c r="AD328" s="3"/>
       <c r="AE328" s="3"/>
     </row>
-    <row r="329" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -11409,7 +11422,7 @@
       <c r="AD329" s="3"/>
       <c r="AE329" s="3"/>
     </row>
-    <row r="330" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -11440,7 +11453,7 @@
       <c r="AD330" s="3"/>
       <c r="AE330" s="3"/>
     </row>
-    <row r="331" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -11471,7 +11484,7 @@
       <c r="AD331" s="3"/>
       <c r="AE331" s="3"/>
     </row>
-    <row r="332" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -11502,7 +11515,7 @@
       <c r="AD332" s="3"/>
       <c r="AE332" s="3"/>
     </row>
-    <row r="333" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -11533,7 +11546,7 @@
       <c r="AD333" s="3"/>
       <c r="AE333" s="3"/>
     </row>
-    <row r="334" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -11564,7 +11577,7 @@
       <c r="AD334" s="3"/>
       <c r="AE334" s="3"/>
     </row>
-    <row r="335" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -11595,7 +11608,7 @@
       <c r="AD335" s="3"/>
       <c r="AE335" s="3"/>
     </row>
-    <row r="336" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -11626,7 +11639,7 @@
       <c r="AD336" s="3"/>
       <c r="AE336" s="3"/>
     </row>
-    <row r="337" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -11657,7 +11670,7 @@
       <c r="AD337" s="3"/>
       <c r="AE337" s="3"/>
     </row>
-    <row r="338" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -11688,7 +11701,7 @@
       <c r="AD338" s="3"/>
       <c r="AE338" s="3"/>
     </row>
-    <row r="339" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -11719,7 +11732,7 @@
       <c r="AD339" s="3"/>
       <c r="AE339" s="3"/>
     </row>
-    <row r="340" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -11750,7 +11763,7 @@
       <c r="AD340" s="3"/>
       <c r="AE340" s="3"/>
     </row>
-    <row r="341" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -11781,7 +11794,7 @@
       <c r="AD341" s="3"/>
       <c r="AE341" s="3"/>
     </row>
-    <row r="342" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -11812,7 +11825,7 @@
       <c r="AD342" s="3"/>
       <c r="AE342" s="3"/>
     </row>
-    <row r="343" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -11843,7 +11856,7 @@
       <c r="AD343" s="3"/>
       <c r="AE343" s="3"/>
     </row>
-    <row r="344" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -11874,7 +11887,7 @@
       <c r="AD344" s="3"/>
       <c r="AE344" s="3"/>
     </row>
-    <row r="345" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -11905,7 +11918,7 @@
       <c r="AD345" s="3"/>
       <c r="AE345" s="3"/>
     </row>
-    <row r="346" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -11936,7 +11949,7 @@
       <c r="AD346" s="3"/>
       <c r="AE346" s="3"/>
     </row>
-    <row r="347" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -11967,7 +11980,7 @@
       <c r="AD347" s="3"/>
       <c r="AE347" s="3"/>
     </row>
-    <row r="348" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -11998,7 +12011,7 @@
       <c r="AD348" s="3"/>
       <c r="AE348" s="3"/>
     </row>
-    <row r="349" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -12029,7 +12042,7 @@
       <c r="AD349" s="3"/>
       <c r="AE349" s="3"/>
     </row>
-    <row r="350" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -12060,7 +12073,7 @@
       <c r="AD350" s="3"/>
       <c r="AE350" s="3"/>
     </row>
-    <row r="351" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -12091,7 +12104,7 @@
       <c r="AD351" s="3"/>
       <c r="AE351" s="3"/>
     </row>
-    <row r="352" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -12122,7 +12135,7 @@
       <c r="AD352" s="3"/>
       <c r="AE352" s="3"/>
     </row>
-    <row r="353" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -12153,7 +12166,7 @@
       <c r="AD353" s="3"/>
       <c r="AE353" s="3"/>
     </row>
-    <row r="354" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -12184,7 +12197,7 @@
       <c r="AD354" s="3"/>
       <c r="AE354" s="3"/>
     </row>
-    <row r="355" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -12215,7 +12228,7 @@
       <c r="AD355" s="3"/>
       <c r="AE355" s="3"/>
     </row>
-    <row r="356" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -12246,7 +12259,7 @@
       <c r="AD356" s="3"/>
       <c r="AE356" s="3"/>
     </row>
-    <row r="357" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -12277,7 +12290,7 @@
       <c r="AD357" s="3"/>
       <c r="AE357" s="3"/>
     </row>
-    <row r="358" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -12308,7 +12321,7 @@
       <c r="AD358" s="3"/>
       <c r="AE358" s="3"/>
     </row>
-    <row r="359" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -12339,7 +12352,7 @@
       <c r="AD359" s="3"/>
       <c r="AE359" s="3"/>
     </row>
-    <row r="360" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -12370,7 +12383,7 @@
       <c r="AD360" s="3"/>
       <c r="AE360" s="3"/>
     </row>
-    <row r="361" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -12401,7 +12414,7 @@
       <c r="AD361" s="3"/>
       <c r="AE361" s="3"/>
     </row>
-    <row r="362" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -12432,7 +12445,7 @@
       <c r="AD362" s="3"/>
       <c r="AE362" s="3"/>
     </row>
-    <row r="363" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -12463,7 +12476,7 @@
       <c r="AD363" s="3"/>
       <c r="AE363" s="3"/>
     </row>
-    <row r="364" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -12494,7 +12507,7 @@
       <c r="AD364" s="3"/>
       <c r="AE364" s="3"/>
     </row>
-    <row r="365" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -12525,7 +12538,7 @@
       <c r="AD365" s="3"/>
       <c r="AE365" s="3"/>
     </row>
-    <row r="366" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -12556,7 +12569,7 @@
       <c r="AD366" s="3"/>
       <c r="AE366" s="3"/>
     </row>
-    <row r="367" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -12587,7 +12600,7 @@
       <c r="AD367" s="3"/>
       <c r="AE367" s="3"/>
     </row>
-    <row r="368" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -12618,7 +12631,7 @@
       <c r="AD368" s="3"/>
       <c r="AE368" s="3"/>
     </row>
-    <row r="369" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -12649,7 +12662,7 @@
       <c r="AD369" s="3"/>
       <c r="AE369" s="3"/>
     </row>
-    <row r="370" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -12680,7 +12693,7 @@
       <c r="AD370" s="3"/>
       <c r="AE370" s="3"/>
     </row>
-    <row r="371" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -12711,7 +12724,7 @@
       <c r="AD371" s="3"/>
       <c r="AE371" s="3"/>
     </row>
-    <row r="372" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -12742,7 +12755,7 @@
       <c r="AD372" s="3"/>
       <c r="AE372" s="3"/>
     </row>
-    <row r="373" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -12773,7 +12786,7 @@
       <c r="AD373" s="3"/>
       <c r="AE373" s="3"/>
     </row>
-    <row r="374" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -12804,7 +12817,7 @@
       <c r="AD374" s="3"/>
       <c r="AE374" s="3"/>
     </row>
-    <row r="375" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -12835,7 +12848,7 @@
       <c r="AD375" s="3"/>
       <c r="AE375" s="3"/>
     </row>
-    <row r="376" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -12866,7 +12879,7 @@
       <c r="AD376" s="3"/>
       <c r="AE376" s="3"/>
     </row>
-    <row r="377" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -12897,7 +12910,7 @@
       <c r="AD377" s="3"/>
       <c r="AE377" s="3"/>
     </row>
-    <row r="378" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -12928,7 +12941,7 @@
       <c r="AD378" s="3"/>
       <c r="AE378" s="3"/>
     </row>
-    <row r="379" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -12959,7 +12972,7 @@
       <c r="AD379" s="3"/>
       <c r="AE379" s="3"/>
     </row>
-    <row r="380" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -12990,7 +13003,7 @@
       <c r="AD380" s="3"/>
       <c r="AE380" s="3"/>
     </row>
-    <row r="381" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -13021,7 +13034,7 @@
       <c r="AD381" s="3"/>
       <c r="AE381" s="3"/>
     </row>
-    <row r="382" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -13052,7 +13065,7 @@
       <c r="AD382" s="3"/>
       <c r="AE382" s="3"/>
     </row>
-    <row r="383" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -13083,7 +13096,7 @@
       <c r="AD383" s="3"/>
       <c r="AE383" s="3"/>
     </row>
-    <row r="384" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -13114,7 +13127,7 @@
       <c r="AD384" s="3"/>
       <c r="AE384" s="3"/>
     </row>
-    <row r="385" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -13145,7 +13158,7 @@
       <c r="AD385" s="3"/>
       <c r="AE385" s="3"/>
     </row>
-    <row r="386" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -13176,7 +13189,7 @@
       <c r="AD386" s="3"/>
       <c r="AE386" s="3"/>
     </row>
-    <row r="387" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -13207,7 +13220,7 @@
       <c r="AD387" s="3"/>
       <c r="AE387" s="3"/>
     </row>
-    <row r="388" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -13238,7 +13251,7 @@
       <c r="AD388" s="3"/>
       <c r="AE388" s="3"/>
     </row>
-    <row r="389" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -13269,7 +13282,7 @@
       <c r="AD389" s="3"/>
       <c r="AE389" s="3"/>
     </row>
-    <row r="390" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -13300,7 +13313,7 @@
       <c r="AD390" s="3"/>
       <c r="AE390" s="3"/>
     </row>
-    <row r="391" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -13331,7 +13344,7 @@
       <c r="AD391" s="3"/>
       <c r="AE391" s="3"/>
     </row>
-    <row r="392" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -13362,7 +13375,7 @@
       <c r="AD392" s="3"/>
       <c r="AE392" s="3"/>
     </row>
-    <row r="393" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -13393,7 +13406,7 @@
       <c r="AD393" s="3"/>
       <c r="AE393" s="3"/>
     </row>
-    <row r="394" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -13424,7 +13437,7 @@
       <c r="AD394" s="3"/>
       <c r="AE394" s="3"/>
     </row>
-    <row r="395" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -13455,7 +13468,7 @@
       <c r="AD395" s="3"/>
       <c r="AE395" s="3"/>
     </row>
-    <row r="396" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -13486,7 +13499,7 @@
       <c r="AD396" s="3"/>
       <c r="AE396" s="3"/>
     </row>
-    <row r="397" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -13517,7 +13530,7 @@
       <c r="AD397" s="3"/>
       <c r="AE397" s="3"/>
     </row>
-    <row r="398" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -13548,7 +13561,7 @@
       <c r="AD398" s="3"/>
       <c r="AE398" s="3"/>
     </row>
-    <row r="399" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -13579,7 +13592,7 @@
       <c r="AD399" s="3"/>
       <c r="AE399" s="3"/>
     </row>
-    <row r="400" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
